--- a/project_2_planning/RESTful Routes.xlsx
+++ b/project_2_planning/RESTful Routes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\project_2_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59796F92-4601-407A-A146-BBFBB2DE1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B5A53-E3C6-4C80-AA23-6AD6BFDBCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
+    <workbookView xWindow="-3300" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>SESSIONS</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>** All npm modules must be "imported" using const &lt;name of module in camel case&gt; = require("&lt;name of module&gt;"). External javascripts are also imported using the require function</t>
+  </si>
+  <si>
+    <t>model relationship got reference??</t>
+  </si>
+  <si>
+    <t>2 collections, users and listings (chats inside listings)</t>
+  </si>
+  <si>
+    <t>listing = [ name of listing, etc. chats = [users that initiated a chat for this listing]]</t>
   </si>
 </sst>
 </file>
@@ -419,15 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -442,6 +442,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,15 +766,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D85A4A-049D-47C2-9A93-FAC7C1E39F2E}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
@@ -1073,6 +1082,21 @@
         <v>57</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1082,9 +1106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C8036A-AC89-4521-ADB5-BBA7195088F0}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1132,7 @@
       <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1122,7 +1146,7 @@
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1136,7 +1160,7 @@
       <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1172,7 +1196,7 @@
       <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1184,7 +1208,7 @@
       <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1209,7 +1233,7 @@
       <c r="C9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1234,20 +1258,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">

--- a/project_2_planning/RESTful Routes.xlsx
+++ b/project_2_planning/RESTful Routes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\project_2_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B5A53-E3C6-4C80-AA23-6AD6BFDBCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906E56A-71F5-472A-B7DE-34CE2A01E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>SESSIONS</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>listing = [ name of listing, etc. chats = [users that initiated a chat for this listing]]</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -411,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -451,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,333 +778,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D85A4A-049D-47C2-9A93-FAC7C1E39F2E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>

--- a/project_2_planning/RESTful Routes.xlsx
+++ b/project_2_planning/RESTful Routes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\project_2_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906E56A-71F5-472A-B7DE-34CE2A01E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5DA82-2506-4145-9786-4E9CC3F8D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
   </bookViews>
@@ -452,6 +452,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -460,9 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,7 +781,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -931,6 +931,7 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -960,6 +961,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -974,6 +976,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1279,20 +1282,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">

--- a/project_2_planning/RESTful Routes.xlsx
+++ b/project_2_planning/RESTful Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\project_2_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5DA82-2506-4145-9786-4E9CC3F8D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E7A66-D619-4512-81A6-D708775D0E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D85A4A-049D-47C2-9A93-FAC7C1E39F2E}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,6 +947,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
@@ -994,6 +995,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1008,6 +1010,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1024,7 +1027,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>

--- a/project_2_planning/RESTful Routes.xlsx
+++ b/project_2_planning/RESTful Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekpeng\Documents\General Assembly Software Engineering Course\Projects\Project 2\project_2_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E7A66-D619-4512-81A6-D708775D0E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D1427-6C89-4D6A-9275-838E0A463DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5EAF637-45B4-409B-812A-DDC1D86CCCB4}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1065,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
